--- a/Textbook Companion/Chapter52/Practice Files/Labelsfromcells.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Labelsfromcells.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -139,7 +139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -214,13 +213,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0C95C0E-1CAC-4346-BBB3-A095EAAC5D0B}" type="CELLRANGE">
+                    <a:fld id="{3173D823-AF8C-4E3A-AD37-6ACEC5387FF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -237,22 +235,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5654-49C8-B39B-6127E80BB1CB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4361296-32F1-4111-B962-A31D0FBA8A50}" type="CELLRANGE">
+                    <a:fld id="{09635F1D-2C25-4F8C-A6B8-49E15F1DEA08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -269,22 +268,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5654-49C8-B39B-6127E80BB1CB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EFED5A8-EB6A-4AD8-85F8-02806D641071}" type="CELLRANGE">
+                    <a:fld id="{E4AA2554-BB0F-4B45-AD31-04DE416689D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -301,22 +301,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5654-49C8-B39B-6127E80BB1CB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A01A94AD-8BA1-4639-9B3D-91A3C5248E31}" type="CELLRANGE">
+                    <a:fld id="{1A96A378-30D5-472C-89DF-32E386ACB758}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -333,22 +334,23 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5654-49C8-B39B-6127E80BB1CB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43AB82E4-2E7F-454E-BF9C-5AA0F68ADFD8}" type="CELLRANGE">
+                    <a:fld id="{14BC3873-2F6C-42D6-908D-084DCE7904C8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -365,10 +367,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5654-49C8-B39B-6127E80BB1CB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -410,7 +414,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -503,6 +506,9 @@
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5654-49C8-B39B-6127E80BB1CB}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -563,7 +569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -681,7 +686,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -764,7 +768,621 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0A18883-CBB5-4DC0-B19E-E096EC51F395}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D6DE-4350-97A4-39DC5F28745F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2C843D14-8FBB-4215-97E9-5D6FFBB8A04E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D6DE-4350-97A4-39DC5F28745F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D7583AD-4D18-43A2-8646-EB8C8C7EECEE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D6DE-4350-97A4-39DC5F28745F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{81FFEAE8-9847-47EF-B453-EB16144A04F9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D6DE-4350-97A4-39DC5F28745F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{069C3DE8-1FC5-411A-9100-22EB3E5AFEAE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D6DE-4350-97A4-39DC5F28745F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$G$6:$G$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Boston</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>New York</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Miami</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chicago</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nashville</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6DE-4350-97A4-39DC5F28745F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446415112"/>
+        <c:axId val="446415440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446415112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446415440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446415440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446415112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1320,24 +1938,546 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1347,6 +2487,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8B3169-2F86-4C47-8986-207BA18E15F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1617,16 +2793,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G5:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +2821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +2832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +2843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +2854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>6</v>
       </c>
